--- a/SubRES_TMPL/SubRES_NEW_PP.xlsx
+++ b/SubRES_TMPL/SubRES_NEW_PP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batfr\OneDrive\Pulpit\TIMES_STUDENTS_FULL\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA01D420-07C7-467C-91D6-8E00ECA87994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374DBCFE-0115-4E2F-94D8-3C43207F82AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1398,7 +1398,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1444,18 +1444,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF96DBFC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1527,7 +1515,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="8" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1643,10 +1631,6 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1656,6 +1640,13 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000013030000}"/>
@@ -2104,8 +2095,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:X111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -2296,10 +2287,10 @@
       <c r="I7" s="34">
         <v>0.8</v>
       </c>
-      <c r="J7" s="57">
+      <c r="J7" s="36">
         <v>8100</v>
       </c>
-      <c r="K7" s="57">
+      <c r="K7" s="36">
         <f>J7</f>
         <v>8100</v>
       </c>
@@ -2333,7 +2324,7 @@
         <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
-      <c r="F8" s="58">
+      <c r="F8" s="21">
         <v>2030</v>
       </c>
       <c r="G8" s="38">
@@ -2345,10 +2336,10 @@
       <c r="I8" s="38">
         <v>0.8</v>
       </c>
-      <c r="J8" s="57">
+      <c r="J8" s="40">
         <v>14600</v>
       </c>
-      <c r="K8" s="57">
+      <c r="K8" s="40">
         <f t="shared" ref="K8:K28" si="2">J8</f>
         <v>14600</v>
       </c>
@@ -2394,10 +2385,10 @@
       <c r="I9" s="34">
         <v>0.8</v>
       </c>
-      <c r="J9" s="57">
+      <c r="J9" s="36">
         <v>9200</v>
       </c>
-      <c r="K9" s="57">
+      <c r="K9" s="36">
         <f t="shared" si="2"/>
         <v>9200</v>
       </c>
@@ -2431,7 +2422,7 @@
         <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="21">
         <v>2025</v>
       </c>
       <c r="G10" s="38">
@@ -2443,10 +2434,10 @@
       <c r="I10" s="38">
         <v>0.8</v>
       </c>
-      <c r="J10" s="57">
+      <c r="J10" s="40">
         <v>7400</v>
       </c>
-      <c r="K10" s="57">
+      <c r="K10" s="40">
         <f t="shared" si="2"/>
         <v>7400</v>
       </c>
@@ -2492,10 +2483,10 @@
       <c r="I11" s="34">
         <v>0.8</v>
       </c>
-      <c r="J11" s="57">
+      <c r="J11" s="36">
         <v>10100</v>
       </c>
-      <c r="K11" s="57">
+      <c r="K11" s="36">
         <f t="shared" si="2"/>
         <v>10100</v>
       </c>
@@ -2529,7 +2520,7 @@
         <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
-      <c r="F12" s="58">
+      <c r="F12" s="21">
         <v>2030</v>
       </c>
       <c r="G12" s="38">
@@ -2541,10 +2532,10 @@
       <c r="I12" s="38">
         <v>0.8</v>
       </c>
-      <c r="J12" s="57">
+      <c r="J12" s="40">
         <v>14600</v>
       </c>
-      <c r="K12" s="57">
+      <c r="K12" s="40">
         <f t="shared" si="2"/>
         <v>14600</v>
       </c>
@@ -2590,10 +2581,10 @@
       <c r="I13" s="34">
         <v>0.6</v>
       </c>
-      <c r="J13" s="57">
+      <c r="J13" s="36">
         <v>3300</v>
       </c>
-      <c r="K13" s="57">
+      <c r="K13" s="36">
         <f t="shared" si="2"/>
         <v>3300</v>
       </c>
@@ -2627,7 +2618,7 @@
         <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
-      <c r="F14" s="58">
+      <c r="F14" s="21">
         <v>2030</v>
       </c>
       <c r="G14" s="38">
@@ -2639,10 +2630,10 @@
       <c r="I14" s="38">
         <v>0.6</v>
       </c>
-      <c r="J14" s="58">
+      <c r="J14" s="40">
         <v>6000</v>
       </c>
-      <c r="K14" s="58">
+      <c r="K14" s="40">
         <f t="shared" si="2"/>
         <v>6000</v>
       </c>
@@ -2688,10 +2679,10 @@
       <c r="I15" s="34">
         <v>0.2</v>
       </c>
-      <c r="J15" s="58">
+      <c r="J15" s="36">
         <v>2200</v>
       </c>
-      <c r="K15" s="58">
+      <c r="K15" s="36">
         <f t="shared" si="2"/>
         <v>2200</v>
       </c>
@@ -2725,7 +2716,7 @@
         <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
-      <c r="F16" s="60">
+      <c r="F16" s="21">
         <v>2035</v>
       </c>
       <c r="G16" s="38">
@@ -2737,10 +2728,10 @@
       <c r="I16" s="38">
         <v>0.9</v>
       </c>
-      <c r="J16" s="60">
+      <c r="J16" s="40">
         <v>20200</v>
       </c>
-      <c r="K16" s="60">
+      <c r="K16" s="40">
         <f t="shared" si="2"/>
         <v>20200</v>
       </c>
@@ -2774,8 +2765,8 @@
         <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
-      <c r="F17" s="60">
-        <v>2030</v>
+      <c r="F17" s="21">
+        <v>2035</v>
       </c>
       <c r="G17" s="34">
         <v>0.36</v>
@@ -2786,10 +2777,10 @@
       <c r="I17" s="34">
         <v>0.9</v>
       </c>
-      <c r="J17" s="60">
+      <c r="J17" s="36">
         <v>10100</v>
       </c>
-      <c r="K17" s="60">
+      <c r="K17" s="36">
         <v>10100</v>
       </c>
       <c r="L17" s="21">
@@ -2822,7 +2813,7 @@
         <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="21">
         <v>2025</v>
       </c>
       <c r="G18" s="38">
@@ -2834,10 +2825,10 @@
       <c r="I18" s="38">
         <v>1</v>
       </c>
-      <c r="J18" s="58">
+      <c r="J18" s="40">
         <v>5800</v>
       </c>
-      <c r="K18" s="58">
+      <c r="K18" s="40">
         <f t="shared" si="2"/>
         <v>5800</v>
       </c>
@@ -2871,7 +2862,7 @@
         <f t="shared" si="0"/>
         <v>ELEC_HV</v>
       </c>
-      <c r="F19" s="58">
+      <c r="F19" s="21">
         <v>2030</v>
       </c>
       <c r="G19" s="34">
@@ -2883,10 +2874,10 @@
       <c r="I19" s="34">
         <v>1</v>
       </c>
-      <c r="J19" s="58">
+      <c r="J19" s="36">
         <v>9400</v>
       </c>
-      <c r="K19" s="58">
+      <c r="K19" s="36">
         <f t="shared" si="2"/>
         <v>9400</v>
       </c>
@@ -2932,10 +2923,10 @@
       <c r="I20" s="38">
         <v>0.8</v>
       </c>
-      <c r="J20" s="58">
+      <c r="J20" s="40">
         <v>31500</v>
       </c>
-      <c r="K20" s="58">
+      <c r="K20" s="40">
         <f t="shared" si="2"/>
         <v>31500</v>
       </c>
@@ -2981,10 +2972,10 @@
       <c r="I21" s="34">
         <v>1</v>
       </c>
-      <c r="J21" s="58">
+      <c r="J21" s="36">
         <v>3100</v>
       </c>
-      <c r="K21" s="58">
+      <c r="K21" s="36">
         <f t="shared" si="2"/>
         <v>3100</v>
       </c>
@@ -3030,10 +3021,10 @@
       <c r="I22" s="38">
         <v>1</v>
       </c>
-      <c r="J22" s="58">
+      <c r="J22" s="40">
         <v>4000</v>
       </c>
-      <c r="K22" s="58">
+      <c r="K22" s="40">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
@@ -3079,10 +3070,10 @@
       <c r="I23" s="34">
         <v>0.8</v>
       </c>
-      <c r="J23" s="58">
+      <c r="J23" s="36">
         <v>12100</v>
       </c>
-      <c r="K23" s="58">
+      <c r="K23" s="36">
         <f t="shared" si="2"/>
         <v>12100</v>
       </c>
@@ -3128,10 +3119,10 @@
       <c r="I24" s="38">
         <v>0.8</v>
       </c>
-      <c r="J24" s="58">
+      <c r="J24" s="40">
         <v>14100</v>
       </c>
-      <c r="K24" s="58">
+      <c r="K24" s="40">
         <f t="shared" si="2"/>
         <v>14100</v>
       </c>
@@ -3177,10 +3168,10 @@
       <c r="I25" s="34">
         <v>0.8</v>
       </c>
-      <c r="J25" s="58">
+      <c r="J25" s="36">
         <v>7200</v>
       </c>
-      <c r="K25" s="58">
+      <c r="K25" s="36">
         <f t="shared" si="2"/>
         <v>7200</v>
       </c>
@@ -3226,10 +3217,10 @@
       <c r="I26" s="42">
         <v>0.8</v>
       </c>
-      <c r="J26" s="59">
+      <c r="J26" s="40">
         <v>11500</v>
       </c>
-      <c r="K26" s="59">
+      <c r="K26" s="40">
         <f t="shared" si="2"/>
         <v>11500</v>
       </c>
@@ -3266,7 +3257,7 @@
       <c r="F27" s="37">
         <v>2030</v>
       </c>
-      <c r="G27" s="38">
+      <c r="G27" s="62">
         <v>0.4</v>
       </c>
       <c r="H27">
@@ -3275,21 +3266,21 @@
       <c r="I27" s="38">
         <v>0.8</v>
       </c>
-      <c r="J27" s="59">
-        <v>11500</v>
-      </c>
-      <c r="K27" s="59">
+      <c r="J27" s="64">
+        <v>4260</v>
+      </c>
+      <c r="K27" s="64">
         <f t="shared" si="2"/>
-        <v>11500</v>
-      </c>
-      <c r="L27" s="3">
-        <v>540</v>
-      </c>
-      <c r="M27" s="1">
+        <v>4260</v>
+      </c>
+      <c r="L27" s="66">
+        <v>545</v>
+      </c>
+      <c r="M27" s="65">
         <v>0</v>
       </c>
-      <c r="N27" s="37">
-        <v>30</v>
+      <c r="N27" s="21">
+        <v>25</v>
       </c>
       <c r="O27" s="42">
         <v>1</v>
@@ -3315,30 +3306,30 @@
       <c r="F28" s="37">
         <v>2030</v>
       </c>
-      <c r="G28" s="65">
+      <c r="G28" s="63">
         <v>0.4</v>
       </c>
       <c r="H28">
         <v>31.536000000000001</v>
       </c>
-      <c r="I28" s="65">
+      <c r="I28" s="61">
         <v>0.8</v>
       </c>
-      <c r="J28" s="59">
-        <v>11500</v>
-      </c>
-      <c r="K28" s="59">
+      <c r="J28" s="64">
+        <v>4260</v>
+      </c>
+      <c r="K28" s="64">
         <f t="shared" si="2"/>
-        <v>11500</v>
-      </c>
-      <c r="L28" s="3">
-        <v>540</v>
-      </c>
-      <c r="M28" s="1">
+        <v>4260</v>
+      </c>
+      <c r="L28" s="66">
+        <v>545</v>
+      </c>
+      <c r="M28" s="65">
         <v>0</v>
       </c>
-      <c r="N28" s="37">
-        <v>30</v>
+      <c r="N28" s="3">
+        <v>25</v>
       </c>
       <c r="O28" s="42">
         <v>1</v>
@@ -3547,8 +3538,8 @@
       <c r="D42" t="s">
         <v>170</v>
       </c>
-      <c r="F42" s="37">
-        <v>50</v>
+      <c r="F42" s="68">
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3564,10 +3555,11 @@
         <v>169</v>
       </c>
       <c r="E43" s="21"/>
-      <c r="F43" s="21">
-        <v>50</v>
+      <c r="F43" s="68">
+        <v>729</v>
       </c>
       <c r="G43" s="21"/>
+      <c r="H43" s="67"/>
     </row>
     <row r="45" spans="2:24" ht="17.25" x14ac:dyDescent="0.45">
       <c r="B45" s="9" t="s">
@@ -4745,8 +4737,8 @@
       <c r="G99" s="21"/>
     </row>
     <row r="100" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B100" s="61"/>
-      <c r="C100" s="62" t="s">
+      <c r="B100" s="57"/>
+      <c r="C100" s="58" t="s">
         <v>81</v>
       </c>
       <c r="D100" s="18"/>
@@ -4788,7 +4780,7 @@
         <f>C66</f>
         <v>ELE_NEW_BC_PL</v>
       </c>
-      <c r="C103" s="63" t="s">
+      <c r="C103" s="59" t="s">
         <v>83</v>
       </c>
       <c r="D103" s="21">
@@ -4802,7 +4794,7 @@
         <f t="shared" ref="B104:B111" si="13">C67</f>
         <v>ELE_NEW_BC_PL_CCS</v>
       </c>
-      <c r="C104" s="64" t="s">
+      <c r="C104" s="60" t="s">
         <v>83</v>
       </c>
       <c r="D104" s="37">
@@ -4919,15 +4911,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -5122,6 +5105,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5134,14 +5126,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E5F63E1-FA12-470A-B6BF-F8D91BBDCA85}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5160,6 +5144,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
   <ds:schemaRefs>

--- a/SubRES_TMPL/SubRES_NEW_PP.xlsx
+++ b/SubRES_TMPL/SubRES_NEW_PP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batfr\OneDrive\Pulpit\TIMES_STUDENTS_FULL\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filip\Desktop\Prezki\vead\projekt-main\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374DBCFE-0115-4E2F-94D8-3C43207F82AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E5DF79-3A44-41AA-A14F-A67F7861AC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC" sheetId="4" r:id="rId1"/>
@@ -1515,7 +1515,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="8" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1641,12 +1641,10 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000013030000}"/>
@@ -2095,31 +2093,31 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:X111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.86328125" customWidth="1"/>
-    <col min="2" max="2" width="31.796875" customWidth="1"/>
-    <col min="3" max="3" width="29.86328125" customWidth="1"/>
-    <col min="4" max="4" width="26.1328125" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.53125" customWidth="1"/>
-    <col min="7" max="7" width="15.86328125" customWidth="1"/>
-    <col min="8" max="8" width="14.86328125" customWidth="1"/>
-    <col min="9" max="9" width="10.53125" customWidth="1"/>
-    <col min="10" max="10" width="10.1328125" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" customWidth="1"/>
-    <col min="12" max="12" width="11.1328125" customWidth="1"/>
-    <col min="13" max="13" width="13.1328125" customWidth="1"/>
-    <col min="14" max="14" width="10.46484375" customWidth="1"/>
-    <col min="15" max="15" width="7.33203125" customWidth="1"/>
-    <col min="16" max="18" width="4.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" customWidth="1"/>
+    <col min="16" max="18" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:20" ht="14.25" x14ac:dyDescent="0.2">
       <c r="L1" s="11" t="s">
         <v>50</v>
       </c>
@@ -2127,7 +2125,7 @@
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="2:20" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:20" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>52</v>
       </c>
@@ -2138,7 +2136,7 @@
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
     </row>
-    <row r="3" spans="2:20" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="6"/>
@@ -2147,7 +2145,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="2:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -2165,7 +2163,7 @@
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
     </row>
-    <row r="5" spans="2:20" ht="26.65" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:20" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -2209,7 +2207,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="2:20" s="8" customFormat="1" ht="38.65" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:20" s="8" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
@@ -2258,7 +2256,7 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="21" t="str">
         <f>C66</f>
         <v>ELE_NEW_BC_PL</v>
@@ -2307,7 +2305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="37" t="str">
         <f t="shared" ref="B8:C8" si="1">C67</f>
         <v>ELE_NEW_BC_PL_CCS</v>
@@ -2356,7 +2354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="21" t="str">
         <f t="shared" ref="B9:C9" si="3">C68</f>
         <v>ELE_NEW_BC_FBC</v>
@@ -2405,7 +2403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="37" t="str">
         <f t="shared" ref="B10:C10" si="4">C69</f>
         <v>ELE_NEW_HC_PC</v>
@@ -2454,7 +2452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="21" t="str">
         <f t="shared" ref="B11:C11" si="5">C70</f>
         <v>ELE_NEW_HC_IGCC</v>
@@ -2503,7 +2501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="37" t="str">
         <f t="shared" ref="B12:C25" si="6">C71</f>
         <v>ELE_NEW_HC_IGCC_CCS</v>
@@ -2552,7 +2550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NAT-GAS_CCGT</v>
@@ -2601,7 +2599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NAT-GAS_CCGT_CCS</v>
@@ -2650,7 +2648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NAT-GAS_OCGT</v>
@@ -2699,7 +2697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NUC_PWR</v>
@@ -2748,7 +2746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NUC_SMR</v>
@@ -2796,7 +2794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_WIND-ON</v>
@@ -2845,7 +2843,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_WIND-OFF</v>
@@ -2894,7 +2892,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_GEO</v>
@@ -2943,7 +2941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_PV_GRND</v>
@@ -2992,7 +2990,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_PV_ROOF</v>
@@ -3041,7 +3039,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_BIOG-AGR</v>
@@ -3090,7 +3088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_BIOG_WWTP</v>
@@ -3139,7 +3137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_BIOG_LFILL</v>
@@ -3188,7 +3186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="str">
         <f t="shared" ref="B26:C28" si="7">C85</f>
         <v>ELE_NEW_BIOM</v>
@@ -3237,7 +3235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" t="str">
         <f t="shared" si="7"/>
         <v>ELE_NEW_COCONUT</v>
@@ -3266,17 +3264,17 @@
       <c r="I27" s="38">
         <v>0.8</v>
       </c>
-      <c r="J27" s="64">
+      <c r="J27" s="63">
         <v>4260</v>
       </c>
-      <c r="K27" s="64">
+      <c r="K27" s="63">
         <f t="shared" si="2"/>
         <v>4260</v>
       </c>
-      <c r="L27" s="66">
+      <c r="L27" s="65">
         <v>545</v>
       </c>
-      <c r="M27" s="65">
+      <c r="M27" s="64">
         <v>0</v>
       </c>
       <c r="N27" s="21">
@@ -3286,7 +3284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" t="str">
         <f t="shared" si="7"/>
         <v>ELE_NEW_CANOLA</v>
@@ -3306,7 +3304,7 @@
       <c r="F28" s="37">
         <v>2030</v>
       </c>
-      <c r="G28" s="63">
+      <c r="G28" s="61">
         <v>0.4</v>
       </c>
       <c r="H28">
@@ -3315,17 +3313,17 @@
       <c r="I28" s="61">
         <v>0.8</v>
       </c>
-      <c r="J28" s="64">
+      <c r="J28" s="63">
         <v>4260</v>
       </c>
-      <c r="K28" s="64">
+      <c r="K28" s="63">
         <f t="shared" si="2"/>
         <v>4260</v>
       </c>
-      <c r="L28" s="66">
+      <c r="L28" s="65">
         <v>545</v>
       </c>
-      <c r="M28" s="65">
+      <c r="M28" s="64">
         <v>0</v>
       </c>
       <c r="N28" s="3">
@@ -3335,14 +3333,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
     </row>
-    <row r="32" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="47" t="s">
@@ -3352,7 +3350,7 @@
       <c r="F32" s="48"/>
       <c r="G32" s="49"/>
     </row>
-    <row r="33" spans="2:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="50" t="s">
         <v>1</v>
       </c>
@@ -3372,7 +3370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:24" ht="25.9" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:24" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>38</v>
       </c>
@@ -3392,7 +3390,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="51" t="str">
         <f>C89</f>
         <v>MIN_WIND-OFF</v>
@@ -3412,7 +3410,7 @@
       <c r="G35" s="53"/>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="55" t="str">
         <f t="shared" ref="B36:C40" si="10">C90</f>
         <v>IMP_URAN</v>
@@ -3431,7 +3429,7 @@
       </c>
       <c r="G36" s="37"/>
     </row>
-    <row r="37" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="51" t="str">
         <f t="shared" si="10"/>
         <v>MIN_GEO</v>
@@ -3450,7 +3448,7 @@
       </c>
       <c r="G37" s="21"/>
     </row>
-    <row r="38" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="55" t="str">
         <f t="shared" si="10"/>
         <v>MIN_BIOG-AGR</v>
@@ -3469,7 +3467,7 @@
       </c>
       <c r="G38" s="37"/>
     </row>
-    <row r="39" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="51" t="str">
         <f t="shared" si="10"/>
         <v>MIN_BIOG-WWTP</v>
@@ -3488,7 +3486,7 @@
       </c>
       <c r="G39" s="21"/>
     </row>
-    <row r="40" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="55" t="str">
         <f t="shared" si="10"/>
         <v>MIN_BIOG_LFILL</v>
@@ -3507,7 +3505,7 @@
       </c>
       <c r="G40" s="37"/>
     </row>
-    <row r="41" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="56" t="str">
         <f>C95</f>
         <v>MIN_BIOM</v>
@@ -3526,7 +3524,7 @@
       </c>
       <c r="G41" s="45"/>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B42" t="str">
         <f>C96</f>
         <v>MIN_CANOLA</v>
@@ -3538,11 +3536,11 @@
       <c r="D42" t="s">
         <v>170</v>
       </c>
-      <c r="F42" s="68">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="43" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F42" s="66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" t="str">
         <f>C97</f>
         <v>IMP_COCONUT</v>
@@ -3555,13 +3553,12 @@
         <v>169</v>
       </c>
       <c r="E43" s="21"/>
-      <c r="F43" s="68">
-        <v>729</v>
+      <c r="F43" s="66">
+        <v>330</v>
       </c>
       <c r="G43" s="21"/>
-      <c r="H43" s="67"/>
-    </row>
-    <row r="45" spans="2:24" ht="17.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="45" spans="2:24" ht="18" x14ac:dyDescent="0.25">
       <c r="B45" s="9" t="s">
         <v>57</v>
       </c>
@@ -3583,7 +3580,7 @@
       <c r="W45" s="9"/>
       <c r="X45" s="9"/>
     </row>
-    <row r="47" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="18" t="s">
         <v>15</v>
       </c>
@@ -3605,7 +3602,7 @@
       <c r="R47" s="18"/>
       <c r="S47" s="18"/>
     </row>
-    <row r="48" spans="2:24" ht="39.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:24" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
         <v>16</v>
       </c>
@@ -3655,7 +3652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="2:19" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:19" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
         <v>58</v>
       </c>
@@ -3705,7 +3702,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="19" t="s">
         <v>24</v>
       </c>
@@ -3739,7 +3736,7 @@
       <c r="R50" s="28"/>
       <c r="S50" s="28"/>
     </row>
-    <row r="51" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="24" t="s">
         <v>24</v>
       </c>
@@ -3773,7 +3770,7 @@
       <c r="R51" s="30"/>
       <c r="S51" s="30"/>
     </row>
-    <row r="52" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="19" t="s">
         <v>24</v>
       </c>
@@ -3807,7 +3804,7 @@
       <c r="R52" s="28"/>
       <c r="S52" s="28"/>
     </row>
-    <row r="53" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="24" t="s">
         <v>24</v>
       </c>
@@ -3841,7 +3838,7 @@
       <c r="R53" s="30"/>
       <c r="S53" s="30"/>
     </row>
-    <row r="54" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="19" t="s">
         <v>24</v>
       </c>
@@ -3875,7 +3872,7 @@
       <c r="R54" s="28"/>
       <c r="S54" s="28"/>
     </row>
-    <row r="55" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B55" s="24" t="s">
         <v>24</v>
       </c>
@@ -3915,7 +3912,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B56" s="22" t="s">
         <v>24</v>
       </c>
@@ -3941,7 +3938,7 @@
       <c r="R56" s="16"/>
       <c r="S56" s="16"/>
     </row>
-    <row r="57" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="19" t="s">
         <v>24</v>
       </c>
@@ -3967,7 +3964,7 @@
       <c r="R57" s="16"/>
       <c r="S57" s="16"/>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B58" s="19" t="s">
         <v>24</v>
       </c>
@@ -3981,18 +3978,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="2:19" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:19" ht="18" x14ac:dyDescent="0.25">
       <c r="B60" s="13" t="s">
         <v>65</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
     </row>
-    <row r="61" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
     </row>
-    <row r="63" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="18" t="s">
         <v>27</v>
       </c>
@@ -4004,7 +4001,7 @@
       <c r="H63" s="18"/>
       <c r="I63" s="18"/>
     </row>
-    <row r="64" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B64" s="5" t="s">
         <v>28</v>
       </c>
@@ -4030,7 +4027,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="38.65" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
         <v>66</v>
       </c>
@@ -4056,7 +4053,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="21" t="s">
         <v>34</v>
       </c>
@@ -4078,7 +4075,7 @@
       <c r="H66" s="21"/>
       <c r="I66" s="21"/>
     </row>
-    <row r="67" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="37" t="s">
         <v>34</v>
       </c>
@@ -4100,7 +4097,7 @@
       <c r="H67" s="37"/>
       <c r="I67" s="37"/>
     </row>
-    <row r="68" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="21" t="s">
         <v>34</v>
       </c>
@@ -4122,7 +4119,7 @@
       <c r="H68" s="21"/>
       <c r="I68" s="21"/>
     </row>
-    <row r="69" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="37" t="s">
         <v>34</v>
       </c>
@@ -4144,7 +4141,7 @@
       <c r="H69" s="37"/>
       <c r="I69" s="37"/>
     </row>
-    <row r="70" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="21" t="s">
         <v>34</v>
       </c>
@@ -4166,7 +4163,7 @@
       <c r="H70" s="21"/>
       <c r="I70" s="21"/>
     </row>
-    <row r="71" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="37" t="s">
         <v>34</v>
       </c>
@@ -4188,7 +4185,7 @@
       <c r="H71" s="37"/>
       <c r="I71" s="37"/>
     </row>
-    <row r="72" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="21" t="s">
         <v>34</v>
       </c>
@@ -4210,7 +4207,7 @@
       <c r="H72" s="21"/>
       <c r="I72" s="21"/>
     </row>
-    <row r="73" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="37" t="s">
         <v>34</v>
       </c>
@@ -4232,7 +4229,7 @@
       <c r="H73" s="37"/>
       <c r="I73" s="37"/>
     </row>
-    <row r="74" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="21" t="s">
         <v>34</v>
       </c>
@@ -4254,7 +4251,7 @@
       <c r="H74" s="21"/>
       <c r="I74" s="21"/>
     </row>
-    <row r="75" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="37" t="s">
         <v>34</v>
       </c>
@@ -4276,7 +4273,7 @@
       <c r="H75" s="37"/>
       <c r="I75" s="37"/>
     </row>
-    <row r="76" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="21" t="s">
         <v>34</v>
       </c>
@@ -4298,7 +4295,7 @@
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
     </row>
-    <row r="77" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="37" t="s">
         <v>34</v>
       </c>
@@ -4320,7 +4317,7 @@
       <c r="H77" s="37"/>
       <c r="I77" s="37"/>
     </row>
-    <row r="78" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="21" t="s">
         <v>34</v>
       </c>
@@ -4342,7 +4339,7 @@
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
     </row>
-    <row r="79" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="37" t="s">
         <v>34</v>
       </c>
@@ -4364,7 +4361,7 @@
       <c r="H79" s="37"/>
       <c r="I79" s="37"/>
     </row>
-    <row r="80" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="21" t="s">
         <v>34</v>
       </c>
@@ -4386,7 +4383,7 @@
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
     </row>
-    <row r="81" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="37" t="s">
         <v>34</v>
       </c>
@@ -4408,7 +4405,7 @@
       <c r="H81" s="37"/>
       <c r="I81" s="37"/>
     </row>
-    <row r="82" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="21" t="s">
         <v>34</v>
       </c>
@@ -4430,7 +4427,7 @@
       <c r="H82" s="21"/>
       <c r="I82" s="21"/>
     </row>
-    <row r="83" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="37" t="s">
         <v>34</v>
       </c>
@@ -4452,7 +4449,7 @@
       <c r="H83" s="37"/>
       <c r="I83" s="37"/>
     </row>
-    <row r="84" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="21" t="s">
         <v>34</v>
       </c>
@@ -4474,7 +4471,7 @@
       <c r="H84" s="21"/>
       <c r="I84" s="21"/>
     </row>
-    <row r="85" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="37" t="s">
         <v>34</v>
       </c>
@@ -4496,7 +4493,7 @@
       <c r="H85" s="37"/>
       <c r="I85" s="37"/>
     </row>
-    <row r="86" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="37" t="s">
         <v>34</v>
       </c>
@@ -4518,7 +4515,7 @@
       <c r="H86" s="37"/>
       <c r="I86" s="37"/>
     </row>
-    <row r="87" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="37" t="s">
         <v>34</v>
       </c>
@@ -4540,7 +4537,7 @@
       <c r="H87" s="37"/>
       <c r="I87" s="37"/>
     </row>
-    <row r="88" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="46" t="s">
         <v>160</v>
       </c>
@@ -4552,7 +4549,7 @@
       <c r="H88" s="46"/>
       <c r="I88" s="46"/>
     </row>
-    <row r="89" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="21" t="s">
         <v>37</v>
       </c>
@@ -4572,7 +4569,7 @@
       <c r="H89" s="21"/>
       <c r="I89" s="21"/>
     </row>
-    <row r="90" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="37" t="s">
         <v>36</v>
       </c>
@@ -4592,7 +4589,7 @@
       <c r="H90" s="37"/>
       <c r="I90" s="37"/>
     </row>
-    <row r="91" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="21" t="s">
         <v>37</v>
       </c>
@@ -4612,7 +4609,7 @@
       <c r="H91" s="21"/>
       <c r="I91" s="21"/>
     </row>
-    <row r="92" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="37" t="s">
         <v>37</v>
       </c>
@@ -4632,7 +4629,7 @@
       <c r="H92" s="37"/>
       <c r="I92" s="37"/>
     </row>
-    <row r="93" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="21" t="s">
         <v>37</v>
       </c>
@@ -4652,7 +4649,7 @@
       <c r="H93" s="21"/>
       <c r="I93" s="21"/>
     </row>
-    <row r="94" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="37" t="s">
         <v>37</v>
       </c>
@@ -4672,7 +4669,7 @@
       <c r="H94" s="37"/>
       <c r="I94" s="37"/>
     </row>
-    <row r="95" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B95" s="45" t="s">
         <v>37</v>
       </c>
@@ -4692,7 +4689,7 @@
       <c r="H95" s="45"/>
       <c r="I95" s="45"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B96" s="37" t="s">
         <v>37</v>
       </c>
@@ -4709,7 +4706,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B97" s="21" t="s">
         <v>36</v>
       </c>
@@ -4726,17 +4723,17 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B98" s="21"/>
       <c r="E98" s="21"/>
       <c r="G98" s="21"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B99" s="21"/>
       <c r="E99" s="21"/>
       <c r="G99" s="21"/>
     </row>
-    <row r="100" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="57"/>
       <c r="C100" s="58" t="s">
         <v>81</v>
@@ -4745,7 +4742,7 @@
       <c r="E100" s="18"/>
       <c r="F100" s="18"/>
     </row>
-    <row r="101" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B101" s="2" t="s">
         <v>1</v>
       </c>
@@ -4764,7 +4761,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="102" spans="2:7" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B102" s="4" t="s">
         <v>38</v>
       </c>
@@ -4775,7 +4772,7 @@
       <c r="E102" s="41"/>
       <c r="F102" s="4"/>
     </row>
-    <row r="103" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="21" t="str">
         <f>C66</f>
         <v>ELE_NEW_BC_PL</v>
@@ -4789,7 +4786,7 @@
       <c r="E103" s="21"/>
       <c r="F103" s="35"/>
     </row>
-    <row r="104" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="37" t="str">
         <f t="shared" ref="B104:B111" si="13">C67</f>
         <v>ELE_NEW_BC_PL_CCS</v>
@@ -4803,7 +4800,7 @@
       <c r="E104" s="37"/>
       <c r="F104" s="39"/>
     </row>
-    <row r="105" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="21" t="str">
         <f t="shared" si="13"/>
         <v>ELE_NEW_BC_FBC</v>
@@ -4817,7 +4814,7 @@
       <c r="E105" s="21"/>
       <c r="F105" s="21"/>
     </row>
-    <row r="106" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="37" t="str">
         <f t="shared" si="13"/>
         <v>ELE_NEW_HC_PC</v>
@@ -4831,7 +4828,7 @@
       </c>
       <c r="F106" s="37"/>
     </row>
-    <row r="107" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="21" t="str">
         <f t="shared" si="13"/>
         <v>ELE_NEW_HC_IGCC</v>
@@ -4845,7 +4842,7 @@
       </c>
       <c r="F107" s="21"/>
     </row>
-    <row r="108" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="37" t="str">
         <f t="shared" si="13"/>
         <v>ELE_NEW_HC_IGCC_CCS</v>
@@ -4859,7 +4856,7 @@
       </c>
       <c r="F108" s="37"/>
     </row>
-    <row r="109" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="21" t="str">
         <f t="shared" si="13"/>
         <v>ELE_NEW_NAT-GAS_CCGT</v>
@@ -4873,7 +4870,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="110" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="37" t="str">
         <f t="shared" si="13"/>
         <v>ELE_NEW_NAT-GAS_CCGT_CCS</v>
@@ -4887,7 +4884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B111" s="45" t="str">
         <f t="shared" si="13"/>
         <v>ELE_NEW_NAT-GAS_OCGT</v>
@@ -4911,6 +4908,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -5105,27 +5122,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E5F63E1-FA12-470A-B6BF-F8D91BBDCA85}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5142,25 +5160,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SubRES_TMPL/SubRES_NEW_PP.xlsx
+++ b/SubRES_TMPL/SubRES_NEW_PP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filip\Desktop\Prezki\vead\projekt-main\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E5DF79-3A44-41AA-A14F-A67F7861AC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170CAEFF-AE63-4D9A-814B-4130B49C8C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2093,8 +2093,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:X111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3537,7 +3537,7 @@
         <v>170</v>
       </c>
       <c r="F42" s="66">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3554,7 +3554,7 @@
       </c>
       <c r="E43" s="21"/>
       <c r="F43" s="66">
-        <v>330</v>
+        <v>12</v>
       </c>
       <c r="G43" s="21"/>
     </row>
@@ -4908,26 +4908,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -5122,28 +5102,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E5F63E1-FA12-470A-B6BF-F8D91BBDCA85}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5160,4 +5139,25 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SubRES_TMPL/SubRES_NEW_PP.xlsx
+++ b/SubRES_TMPL/SubRES_NEW_PP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filip\Desktop\Prezki\vead\projekt-main\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170CAEFF-AE63-4D9A-814B-4130B49C8C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690E4479-4FAE-4EE0-ABF4-BCF5603653B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2093,8 +2093,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:X111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3537,7 +3537,7 @@
         <v>170</v>
       </c>
       <c r="F42" s="66">
-        <v>12</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3554,7 +3554,7 @@
       </c>
       <c r="E43" s="21"/>
       <c r="F43" s="66">
-        <v>12</v>
+        <v>380</v>
       </c>
       <c r="G43" s="21"/>
     </row>
@@ -4908,6 +4908,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -5102,27 +5122,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E5F63E1-FA12-470A-B6BF-F8D91BBDCA85}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5139,25 +5160,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SubRES_TMPL/SubRES_NEW_PP.xlsx
+++ b/SubRES_TMPL/SubRES_NEW_PP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filip\Desktop\Prezki\vead\projekt-main\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690E4479-4FAE-4EE0-ABF4-BCF5603653B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6AD77D-809C-48C3-A1D3-841D92EE2233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2093,8 +2093,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:X111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3554,7 +3554,7 @@
       </c>
       <c r="E43" s="21"/>
       <c r="F43" s="66">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="G43" s="21"/>
     </row>
@@ -4908,26 +4908,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -5122,28 +5102,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E5F63E1-FA12-470A-B6BF-F8D91BBDCA85}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5160,4 +5139,25 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SubRES_TMPL/SubRES_NEW_PP.xlsx
+++ b/SubRES_TMPL/SubRES_NEW_PP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filip\Desktop\Prezki\vead\projekt-main\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6AD77D-809C-48C3-A1D3-841D92EE2233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3E0015-236F-496C-8F1C-8196927A4861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2094,7 +2094,7 @@
   <dimension ref="B1:X111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="E36" s="37"/>
       <c r="F36" s="37">
-        <v>2.2999999999999998</v>
+        <v>3.5</v>
       </c>
       <c r="G36" s="37"/>
     </row>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="E38" s="37"/>
       <c r="F38" s="37">
-        <v>116.11</v>
+        <v>150</v>
       </c>
       <c r="G38" s="37"/>
     </row>
@@ -3482,7 +3482,7 @@
       </c>
       <c r="E39" s="21"/>
       <c r="F39" s="21">
-        <v>104.5</v>
+        <v>150</v>
       </c>
       <c r="G39" s="21"/>
     </row>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="E40" s="37"/>
       <c r="F40" s="37">
-        <v>127.7</v>
+        <v>150</v>
       </c>
       <c r="G40" s="37"/>
     </row>
@@ -4908,6 +4908,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -5102,27 +5122,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E5F63E1-FA12-470A-B6BF-F8D91BBDCA85}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5139,25 +5160,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SubRES_TMPL/SubRES_NEW_PP.xlsx
+++ b/SubRES_TMPL/SubRES_NEW_PP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filip\Desktop\Prezki\vead\projekt-main\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batfr\OneDrive\Pulpit\TIMES_STUDENTS_FULL\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3E0015-236F-496C-8F1C-8196927A4861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374DBCFE-0115-4E2F-94D8-3C43207F82AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC" sheetId="4" r:id="rId1"/>
@@ -1515,7 +1515,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="8" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1641,10 +1641,12 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000013030000}"/>
@@ -2093,31 +2095,31 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:X111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" customWidth="1"/>
-    <col min="16" max="18" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="31.796875" customWidth="1"/>
+    <col min="3" max="3" width="29.86328125" customWidth="1"/>
+    <col min="4" max="4" width="26.1328125" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.53125" customWidth="1"/>
+    <col min="7" max="7" width="15.86328125" customWidth="1"/>
+    <col min="8" max="8" width="14.86328125" customWidth="1"/>
+    <col min="9" max="9" width="10.53125" customWidth="1"/>
+    <col min="10" max="10" width="10.1328125" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.1328125" customWidth="1"/>
+    <col min="13" max="13" width="13.1328125" customWidth="1"/>
+    <col min="14" max="14" width="10.46484375" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" customWidth="1"/>
+    <col min="16" max="18" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:20" ht="13.5" x14ac:dyDescent="0.35">
       <c r="L1" s="11" t="s">
         <v>50</v>
       </c>
@@ -2125,7 +2127,7 @@
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="2:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" ht="17.25" x14ac:dyDescent="0.45">
       <c r="B2" s="9" t="s">
         <v>52</v>
       </c>
@@ -2136,7 +2138,7 @@
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" ht="13.15" x14ac:dyDescent="0.4">
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="6"/>
@@ -2145,7 +2147,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="2:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -2163,7 +2165,7 @@
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
     </row>
-    <row r="5" spans="2:20" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" ht="26.65" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -2207,7 +2209,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="2:20" s="8" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" s="8" customFormat="1" ht="38.65" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
@@ -2256,7 +2258,7 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="21" t="str">
         <f>C66</f>
         <v>ELE_NEW_BC_PL</v>
@@ -2305,7 +2307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="37" t="str">
         <f t="shared" ref="B8:C8" si="1">C67</f>
         <v>ELE_NEW_BC_PL_CCS</v>
@@ -2354,7 +2356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="21" t="str">
         <f t="shared" ref="B9:C9" si="3">C68</f>
         <v>ELE_NEW_BC_FBC</v>
@@ -2403,7 +2405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="37" t="str">
         <f t="shared" ref="B10:C10" si="4">C69</f>
         <v>ELE_NEW_HC_PC</v>
@@ -2452,7 +2454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="21" t="str">
         <f t="shared" ref="B11:C11" si="5">C70</f>
         <v>ELE_NEW_HC_IGCC</v>
@@ -2501,7 +2503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="37" t="str">
         <f t="shared" ref="B12:C25" si="6">C71</f>
         <v>ELE_NEW_HC_IGCC_CCS</v>
@@ -2550,7 +2552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NAT-GAS_CCGT</v>
@@ -2599,7 +2601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NAT-GAS_CCGT_CCS</v>
@@ -2648,7 +2650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NAT-GAS_OCGT</v>
@@ -2697,7 +2699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NUC_PWR</v>
@@ -2746,7 +2748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NUC_SMR</v>
@@ -2794,7 +2796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_WIND-ON</v>
@@ -2843,7 +2845,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_WIND-OFF</v>
@@ -2892,7 +2894,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_GEO</v>
@@ -2941,7 +2943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_PV_GRND</v>
@@ -2990,7 +2992,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_PV_ROOF</v>
@@ -3039,7 +3041,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_BIOG-AGR</v>
@@ -3088,7 +3090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_BIOG_WWTP</v>
@@ -3137,7 +3139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_BIOG_LFILL</v>
@@ -3186,7 +3188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="3" t="str">
         <f t="shared" ref="B26:C28" si="7">C85</f>
         <v>ELE_NEW_BIOM</v>
@@ -3235,7 +3237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" t="str">
         <f t="shared" si="7"/>
         <v>ELE_NEW_COCONUT</v>
@@ -3264,17 +3266,17 @@
       <c r="I27" s="38">
         <v>0.8</v>
       </c>
-      <c r="J27" s="63">
+      <c r="J27" s="64">
         <v>4260</v>
       </c>
-      <c r="K27" s="63">
+      <c r="K27" s="64">
         <f t="shared" si="2"/>
         <v>4260</v>
       </c>
-      <c r="L27" s="65">
+      <c r="L27" s="66">
         <v>545</v>
       </c>
-      <c r="M27" s="64">
+      <c r="M27" s="65">
         <v>0</v>
       </c>
       <c r="N27" s="21">
@@ -3284,7 +3286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" t="str">
         <f t="shared" si="7"/>
         <v>ELE_NEW_CANOLA</v>
@@ -3304,7 +3306,7 @@
       <c r="F28" s="37">
         <v>2030</v>
       </c>
-      <c r="G28" s="61">
+      <c r="G28" s="63">
         <v>0.4</v>
       </c>
       <c r="H28">
@@ -3313,17 +3315,17 @@
       <c r="I28" s="61">
         <v>0.8</v>
       </c>
-      <c r="J28" s="63">
+      <c r="J28" s="64">
         <v>4260</v>
       </c>
-      <c r="K28" s="63">
+      <c r="K28" s="64">
         <f t="shared" si="2"/>
         <v>4260</v>
       </c>
-      <c r="L28" s="65">
+      <c r="L28" s="66">
         <v>545</v>
       </c>
-      <c r="M28" s="64">
+      <c r="M28" s="65">
         <v>0</v>
       </c>
       <c r="N28" s="3">
@@ -3333,14 +3335,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" ht="17.25" x14ac:dyDescent="0.45">
       <c r="B30" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
     </row>
-    <row r="32" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="47" t="s">
@@ -3350,7 +3352,7 @@
       <c r="F32" s="48"/>
       <c r="G32" s="49"/>
     </row>
-    <row r="33" spans="2:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B33" s="50" t="s">
         <v>1</v>
       </c>
@@ -3370,7 +3372,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:24" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:24" ht="25.9" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="4" t="s">
         <v>38</v>
       </c>
@@ -3390,7 +3392,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="51" t="str">
         <f>C89</f>
         <v>MIN_WIND-OFF</v>
@@ -3410,7 +3412,7 @@
       <c r="G35" s="53"/>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="55" t="str">
         <f t="shared" ref="B36:C40" si="10">C90</f>
         <v>IMP_URAN</v>
@@ -3425,11 +3427,11 @@
       </c>
       <c r="E36" s="37"/>
       <c r="F36" s="37">
-        <v>3.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G36" s="37"/>
     </row>
-    <row r="37" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="51" t="str">
         <f t="shared" si="10"/>
         <v>MIN_GEO</v>
@@ -3448,7 +3450,7 @@
       </c>
       <c r="G37" s="21"/>
     </row>
-    <row r="38" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="55" t="str">
         <f t="shared" si="10"/>
         <v>MIN_BIOG-AGR</v>
@@ -3463,11 +3465,11 @@
       </c>
       <c r="E38" s="37"/>
       <c r="F38" s="37">
-        <v>150</v>
+        <v>116.11</v>
       </c>
       <c r="G38" s="37"/>
     </row>
-    <row r="39" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="51" t="str">
         <f t="shared" si="10"/>
         <v>MIN_BIOG-WWTP</v>
@@ -3482,11 +3484,11 @@
       </c>
       <c r="E39" s="21"/>
       <c r="F39" s="21">
-        <v>150</v>
+        <v>104.5</v>
       </c>
       <c r="G39" s="21"/>
     </row>
-    <row r="40" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="55" t="str">
         <f t="shared" si="10"/>
         <v>MIN_BIOG_LFILL</v>
@@ -3501,11 +3503,11 @@
       </c>
       <c r="E40" s="37"/>
       <c r="F40" s="37">
-        <v>150</v>
+        <v>127.7</v>
       </c>
       <c r="G40" s="37"/>
     </row>
-    <row r="41" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B41" s="56" t="str">
         <f>C95</f>
         <v>MIN_BIOM</v>
@@ -3524,7 +3526,7 @@
       </c>
       <c r="G41" s="45"/>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B42" t="str">
         <f>C96</f>
         <v>MIN_CANOLA</v>
@@ -3536,11 +3538,11 @@
       <c r="D42" t="s">
         <v>170</v>
       </c>
-      <c r="F42" s="66">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F42" s="68">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" t="str">
         <f>C97</f>
         <v>IMP_COCONUT</v>
@@ -3553,12 +3555,13 @@
         <v>169</v>
       </c>
       <c r="E43" s="21"/>
-      <c r="F43" s="66">
-        <v>250</v>
+      <c r="F43" s="68">
+        <v>729</v>
       </c>
       <c r="G43" s="21"/>
-    </row>
-    <row r="45" spans="2:24" ht="18" x14ac:dyDescent="0.25">
+      <c r="H43" s="67"/>
+    </row>
+    <row r="45" spans="2:24" ht="17.25" x14ac:dyDescent="0.45">
       <c r="B45" s="9" t="s">
         <v>57</v>
       </c>
@@ -3580,7 +3583,7 @@
       <c r="W45" s="9"/>
       <c r="X45" s="9"/>
     </row>
-    <row r="47" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B47" s="18" t="s">
         <v>15</v>
       </c>
@@ -3602,7 +3605,7 @@
       <c r="R47" s="18"/>
       <c r="S47" s="18"/>
     </row>
-    <row r="48" spans="2:24" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:24" ht="39.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B48" s="5" t="s">
         <v>16</v>
       </c>
@@ -3652,7 +3655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="2:19" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:19" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="4" t="s">
         <v>58</v>
       </c>
@@ -3702,7 +3705,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="19" t="s">
         <v>24</v>
       </c>
@@ -3736,7 +3739,7 @@
       <c r="R50" s="28"/>
       <c r="S50" s="28"/>
     </row>
-    <row r="51" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="24" t="s">
         <v>24</v>
       </c>
@@ -3770,7 +3773,7 @@
       <c r="R51" s="30"/>
       <c r="S51" s="30"/>
     </row>
-    <row r="52" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="19" t="s">
         <v>24</v>
       </c>
@@ -3804,7 +3807,7 @@
       <c r="R52" s="28"/>
       <c r="S52" s="28"/>
     </row>
-    <row r="53" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="24" t="s">
         <v>24</v>
       </c>
@@ -3838,7 +3841,7 @@
       <c r="R53" s="30"/>
       <c r="S53" s="30"/>
     </row>
-    <row r="54" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="19" t="s">
         <v>24</v>
       </c>
@@ -3872,7 +3875,7 @@
       <c r="R54" s="28"/>
       <c r="S54" s="28"/>
     </row>
-    <row r="55" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="24" t="s">
         <v>24</v>
       </c>
@@ -3912,7 +3915,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B56" s="22" t="s">
         <v>24</v>
       </c>
@@ -3938,7 +3941,7 @@
       <c r="R56" s="16"/>
       <c r="S56" s="16"/>
     </row>
-    <row r="57" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="19" t="s">
         <v>24</v>
       </c>
@@ -3964,7 +3967,7 @@
       <c r="R57" s="16"/>
       <c r="S57" s="16"/>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B58" s="19" t="s">
         <v>24</v>
       </c>
@@ -3978,18 +3981,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="2:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:19" ht="17.25" x14ac:dyDescent="0.45">
       <c r="B60" s="13" t="s">
         <v>65</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
     </row>
-    <row r="61" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
     </row>
-    <row r="63" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B63" s="18" t="s">
         <v>27</v>
       </c>
@@ -4001,7 +4004,7 @@
       <c r="H63" s="18"/>
       <c r="I63" s="18"/>
     </row>
-    <row r="64" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B64" s="5" t="s">
         <v>28</v>
       </c>
@@ -4027,7 +4030,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" ht="38.65" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B65" s="4" t="s">
         <v>66</v>
       </c>
@@ -4053,7 +4056,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="21" t="s">
         <v>34</v>
       </c>
@@ -4075,7 +4078,7 @@
       <c r="H66" s="21"/>
       <c r="I66" s="21"/>
     </row>
-    <row r="67" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="37" t="s">
         <v>34</v>
       </c>
@@ -4097,7 +4100,7 @@
       <c r="H67" s="37"/>
       <c r="I67" s="37"/>
     </row>
-    <row r="68" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="21" t="s">
         <v>34</v>
       </c>
@@ -4119,7 +4122,7 @@
       <c r="H68" s="21"/>
       <c r="I68" s="21"/>
     </row>
-    <row r="69" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="37" t="s">
         <v>34</v>
       </c>
@@ -4141,7 +4144,7 @@
       <c r="H69" s="37"/>
       <c r="I69" s="37"/>
     </row>
-    <row r="70" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="21" t="s">
         <v>34</v>
       </c>
@@ -4163,7 +4166,7 @@
       <c r="H70" s="21"/>
       <c r="I70" s="21"/>
     </row>
-    <row r="71" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="37" t="s">
         <v>34</v>
       </c>
@@ -4185,7 +4188,7 @@
       <c r="H71" s="37"/>
       <c r="I71" s="37"/>
     </row>
-    <row r="72" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="21" t="s">
         <v>34</v>
       </c>
@@ -4207,7 +4210,7 @@
       <c r="H72" s="21"/>
       <c r="I72" s="21"/>
     </row>
-    <row r="73" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="37" t="s">
         <v>34</v>
       </c>
@@ -4229,7 +4232,7 @@
       <c r="H73" s="37"/>
       <c r="I73" s="37"/>
     </row>
-    <row r="74" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="21" t="s">
         <v>34</v>
       </c>
@@ -4251,7 +4254,7 @@
       <c r="H74" s="21"/>
       <c r="I74" s="21"/>
     </row>
-    <row r="75" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="37" t="s">
         <v>34</v>
       </c>
@@ -4273,7 +4276,7 @@
       <c r="H75" s="37"/>
       <c r="I75" s="37"/>
     </row>
-    <row r="76" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="21" t="s">
         <v>34</v>
       </c>
@@ -4295,7 +4298,7 @@
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
     </row>
-    <row r="77" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="37" t="s">
         <v>34</v>
       </c>
@@ -4317,7 +4320,7 @@
       <c r="H77" s="37"/>
       <c r="I77" s="37"/>
     </row>
-    <row r="78" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="21" t="s">
         <v>34</v>
       </c>
@@ -4339,7 +4342,7 @@
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
     </row>
-    <row r="79" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="37" t="s">
         <v>34</v>
       </c>
@@ -4361,7 +4364,7 @@
       <c r="H79" s="37"/>
       <c r="I79" s="37"/>
     </row>
-    <row r="80" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="21" t="s">
         <v>34</v>
       </c>
@@ -4383,7 +4386,7 @@
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
     </row>
-    <row r="81" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="37" t="s">
         <v>34</v>
       </c>
@@ -4405,7 +4408,7 @@
       <c r="H81" s="37"/>
       <c r="I81" s="37"/>
     </row>
-    <row r="82" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="21" t="s">
         <v>34</v>
       </c>
@@ -4427,7 +4430,7 @@
       <c r="H82" s="21"/>
       <c r="I82" s="21"/>
     </row>
-    <row r="83" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="37" t="s">
         <v>34</v>
       </c>
@@ -4449,7 +4452,7 @@
       <c r="H83" s="37"/>
       <c r="I83" s="37"/>
     </row>
-    <row r="84" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="21" t="s">
         <v>34</v>
       </c>
@@ -4471,7 +4474,7 @@
       <c r="H84" s="21"/>
       <c r="I84" s="21"/>
     </row>
-    <row r="85" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="37" t="s">
         <v>34</v>
       </c>
@@ -4493,7 +4496,7 @@
       <c r="H85" s="37"/>
       <c r="I85" s="37"/>
     </row>
-    <row r="86" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="37" t="s">
         <v>34</v>
       </c>
@@ -4515,7 +4518,7 @@
       <c r="H86" s="37"/>
       <c r="I86" s="37"/>
     </row>
-    <row r="87" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="37" t="s">
         <v>34</v>
       </c>
@@ -4537,7 +4540,7 @@
       <c r="H87" s="37"/>
       <c r="I87" s="37"/>
     </row>
-    <row r="88" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="46" t="s">
         <v>160</v>
       </c>
@@ -4549,7 +4552,7 @@
       <c r="H88" s="46"/>
       <c r="I88" s="46"/>
     </row>
-    <row r="89" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="21" t="s">
         <v>37</v>
       </c>
@@ -4569,7 +4572,7 @@
       <c r="H89" s="21"/>
       <c r="I89" s="21"/>
     </row>
-    <row r="90" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="37" t="s">
         <v>36</v>
       </c>
@@ -4589,7 +4592,7 @@
       <c r="H90" s="37"/>
       <c r="I90" s="37"/>
     </row>
-    <row r="91" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="21" t="s">
         <v>37</v>
       </c>
@@ -4609,7 +4612,7 @@
       <c r="H91" s="21"/>
       <c r="I91" s="21"/>
     </row>
-    <row r="92" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="37" t="s">
         <v>37</v>
       </c>
@@ -4629,7 +4632,7 @@
       <c r="H92" s="37"/>
       <c r="I92" s="37"/>
     </row>
-    <row r="93" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="21" t="s">
         <v>37</v>
       </c>
@@ -4649,7 +4652,7 @@
       <c r="H93" s="21"/>
       <c r="I93" s="21"/>
     </row>
-    <row r="94" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="37" t="s">
         <v>37</v>
       </c>
@@ -4669,7 +4672,7 @@
       <c r="H94" s="37"/>
       <c r="I94" s="37"/>
     </row>
-    <row r="95" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B95" s="45" t="s">
         <v>37</v>
       </c>
@@ -4689,7 +4692,7 @@
       <c r="H95" s="45"/>
       <c r="I95" s="45"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B96" s="37" t="s">
         <v>37</v>
       </c>
@@ -4706,7 +4709,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B97" s="21" t="s">
         <v>36</v>
       </c>
@@ -4723,17 +4726,17 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B98" s="21"/>
       <c r="E98" s="21"/>
       <c r="G98" s="21"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B99" s="21"/>
       <c r="E99" s="21"/>
       <c r="G99" s="21"/>
     </row>
-    <row r="100" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B100" s="57"/>
       <c r="C100" s="58" t="s">
         <v>81</v>
@@ -4742,7 +4745,7 @@
       <c r="E100" s="18"/>
       <c r="F100" s="18"/>
     </row>
-    <row r="101" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B101" s="2" t="s">
         <v>1</v>
       </c>
@@ -4761,7 +4764,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="102" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:7" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B102" s="4" t="s">
         <v>38</v>
       </c>
@@ -4772,7 +4775,7 @@
       <c r="E102" s="41"/>
       <c r="F102" s="4"/>
     </row>
-    <row r="103" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" s="21" t="str">
         <f>C66</f>
         <v>ELE_NEW_BC_PL</v>
@@ -4786,7 +4789,7 @@
       <c r="E103" s="21"/>
       <c r="F103" s="35"/>
     </row>
-    <row r="104" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="37" t="str">
         <f t="shared" ref="B104:B111" si="13">C67</f>
         <v>ELE_NEW_BC_PL_CCS</v>
@@ -4800,7 +4803,7 @@
       <c r="E104" s="37"/>
       <c r="F104" s="39"/>
     </row>
-    <row r="105" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="21" t="str">
         <f t="shared" si="13"/>
         <v>ELE_NEW_BC_FBC</v>
@@ -4814,7 +4817,7 @@
       <c r="E105" s="21"/>
       <c r="F105" s="21"/>
     </row>
-    <row r="106" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="37" t="str">
         <f t="shared" si="13"/>
         <v>ELE_NEW_HC_PC</v>
@@ -4828,7 +4831,7 @@
       </c>
       <c r="F106" s="37"/>
     </row>
-    <row r="107" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="21" t="str">
         <f t="shared" si="13"/>
         <v>ELE_NEW_HC_IGCC</v>
@@ -4842,7 +4845,7 @@
       </c>
       <c r="F107" s="21"/>
     </row>
-    <row r="108" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="37" t="str">
         <f t="shared" si="13"/>
         <v>ELE_NEW_HC_IGCC_CCS</v>
@@ -4856,7 +4859,7 @@
       </c>
       <c r="F108" s="37"/>
     </row>
-    <row r="109" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="21" t="str">
         <f t="shared" si="13"/>
         <v>ELE_NEW_NAT-GAS_CCGT</v>
@@ -4870,7 +4873,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="110" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="37" t="str">
         <f t="shared" si="13"/>
         <v>ELE_NEW_NAT-GAS_CCGT_CCS</v>
@@ -4884,7 +4887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B111" s="45" t="str">
         <f t="shared" si="13"/>
         <v>ELE_NEW_NAT-GAS_OCGT</v>
@@ -4908,26 +4911,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -5122,28 +5105,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E5F63E1-FA12-470A-B6BF-F8D91BBDCA85}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5160,4 +5142,25 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SubRES_TMPL/SubRES_NEW_PP.xlsx
+++ b/SubRES_TMPL/SubRES_NEW_PP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batfr\OneDrive\Pulpit\TIMES_STUDENTS_FULL\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\VEDA\projektivov-main\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374DBCFE-0115-4E2F-94D8-3C43207F82AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03954E32-9C68-4499-9EB7-6D536572FF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC" sheetId="4" r:id="rId1"/>
@@ -1515,7 +1515,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="8" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1641,12 +1641,10 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000013030000}"/>
@@ -2095,31 +2093,31 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:X111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.86328125" customWidth="1"/>
-    <col min="2" max="2" width="31.796875" customWidth="1"/>
-    <col min="3" max="3" width="29.86328125" customWidth="1"/>
-    <col min="4" max="4" width="26.1328125" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.53125" customWidth="1"/>
-    <col min="7" max="7" width="15.86328125" customWidth="1"/>
-    <col min="8" max="8" width="14.86328125" customWidth="1"/>
-    <col min="9" max="9" width="10.53125" customWidth="1"/>
-    <col min="10" max="10" width="10.1328125" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
     <col min="11" max="11" width="10.33203125" customWidth="1"/>
-    <col min="12" max="12" width="11.1328125" customWidth="1"/>
-    <col min="13" max="13" width="13.1328125" customWidth="1"/>
-    <col min="14" max="14" width="10.46484375" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" customWidth="1"/>
     <col min="15" max="15" width="7.33203125" customWidth="1"/>
     <col min="16" max="18" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:20" ht="13.8" x14ac:dyDescent="0.25">
       <c r="L1" s="11" t="s">
         <v>50</v>
       </c>
@@ -2127,7 +2125,7 @@
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
     </row>
-    <row r="2" spans="2:20" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>52</v>
       </c>
@@ -2138,7 +2136,7 @@
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
     </row>
-    <row r="3" spans="2:20" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="6"/>
@@ -2147,7 +2145,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="2:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -2165,7 +2163,7 @@
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
     </row>
-    <row r="5" spans="2:20" ht="26.65" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:20" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -2209,7 +2207,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="2:20" s="8" customFormat="1" ht="38.65" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:20" s="8" customFormat="1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
@@ -2258,7 +2256,7 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="21" t="str">
         <f>C66</f>
         <v>ELE_NEW_BC_PL</v>
@@ -2307,7 +2305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="37" t="str">
         <f t="shared" ref="B8:C8" si="1">C67</f>
         <v>ELE_NEW_BC_PL_CCS</v>
@@ -2356,7 +2354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="str">
         <f t="shared" ref="B9:C9" si="3">C68</f>
         <v>ELE_NEW_BC_FBC</v>
@@ -2405,7 +2403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="37" t="str">
         <f t="shared" ref="B10:C10" si="4">C69</f>
         <v>ELE_NEW_HC_PC</v>
@@ -2454,7 +2452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="21" t="str">
         <f t="shared" ref="B11:C11" si="5">C70</f>
         <v>ELE_NEW_HC_IGCC</v>
@@ -2503,7 +2501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37" t="str">
         <f t="shared" ref="B12:C25" si="6">C71</f>
         <v>ELE_NEW_HC_IGCC_CCS</v>
@@ -2552,7 +2550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NAT-GAS_CCGT</v>
@@ -2601,7 +2599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NAT-GAS_CCGT_CCS</v>
@@ -2650,7 +2648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NAT-GAS_OCGT</v>
@@ -2699,7 +2697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NUC_PWR</v>
@@ -2748,7 +2746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_NUC_SMR</v>
@@ -2796,7 +2794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_WIND-ON</v>
@@ -2845,7 +2843,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_WIND-OFF</v>
@@ -2894,7 +2892,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_GEO</v>
@@ -2943,7 +2941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_PV_GRND</v>
@@ -2992,7 +2990,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_PV_ROOF</v>
@@ -3041,7 +3039,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_BIOG-AGR</v>
@@ -3090,7 +3088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="37" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_BIOG_WWTP</v>
@@ -3139,7 +3137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="21" t="str">
         <f t="shared" si="6"/>
         <v>ELE_NEW_BIOG_LFILL</v>
@@ -3188,7 +3186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="str">
         <f t="shared" ref="B26:C28" si="7">C85</f>
         <v>ELE_NEW_BIOM</v>
@@ -3237,7 +3235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" t="str">
         <f t="shared" si="7"/>
         <v>ELE_NEW_COCONUT</v>
@@ -3258,7 +3256,7 @@
         <v>2030</v>
       </c>
       <c r="G27" s="62">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H27">
         <v>31.536000000000001</v>
@@ -3266,17 +3264,17 @@
       <c r="I27" s="38">
         <v>0.8</v>
       </c>
-      <c r="J27" s="64">
-        <v>4260</v>
-      </c>
-      <c r="K27" s="64">
+      <c r="J27" s="63">
+        <v>11500</v>
+      </c>
+      <c r="K27" s="63">
         <f t="shared" si="2"/>
-        <v>4260</v>
-      </c>
-      <c r="L27" s="66">
+        <v>11500</v>
+      </c>
+      <c r="L27" s="65">
         <v>545</v>
       </c>
-      <c r="M27" s="65">
+      <c r="M27" s="64">
         <v>0</v>
       </c>
       <c r="N27" s="21">
@@ -3286,7 +3284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" t="str">
         <f t="shared" si="7"/>
         <v>ELE_NEW_CANOLA</v>
@@ -3306,7 +3304,7 @@
       <c r="F28" s="37">
         <v>2030</v>
       </c>
-      <c r="G28" s="63">
+      <c r="G28" s="61">
         <v>0.4</v>
       </c>
       <c r="H28">
@@ -3315,17 +3313,17 @@
       <c r="I28" s="61">
         <v>0.8</v>
       </c>
-      <c r="J28" s="64">
-        <v>4260</v>
-      </c>
-      <c r="K28" s="64">
+      <c r="J28" s="63">
+        <v>7200</v>
+      </c>
+      <c r="K28" s="63">
         <f t="shared" si="2"/>
-        <v>4260</v>
-      </c>
-      <c r="L28" s="66">
+        <v>7200</v>
+      </c>
+      <c r="L28" s="65">
         <v>545</v>
       </c>
-      <c r="M28" s="65">
+      <c r="M28" s="64">
         <v>0</v>
       </c>
       <c r="N28" s="3">
@@ -3335,14 +3333,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
     </row>
-    <row r="32" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="47" t="s">
@@ -3352,7 +3350,7 @@
       <c r="F32" s="48"/>
       <c r="G32" s="49"/>
     </row>
-    <row r="33" spans="2:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="50" t="s">
         <v>1</v>
       </c>
@@ -3372,7 +3370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:24" ht="25.9" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:24" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>38</v>
       </c>
@@ -3392,7 +3390,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="51" t="str">
         <f>C89</f>
         <v>MIN_WIND-OFF</v>
@@ -3412,7 +3410,7 @@
       <c r="G35" s="53"/>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="55" t="str">
         <f t="shared" ref="B36:C40" si="10">C90</f>
         <v>IMP_URAN</v>
@@ -3431,7 +3429,7 @@
       </c>
       <c r="G36" s="37"/>
     </row>
-    <row r="37" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="51" t="str">
         <f t="shared" si="10"/>
         <v>MIN_GEO</v>
@@ -3450,7 +3448,7 @@
       </c>
       <c r="G37" s="21"/>
     </row>
-    <row r="38" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="55" t="str">
         <f t="shared" si="10"/>
         <v>MIN_BIOG-AGR</v>
@@ -3469,7 +3467,7 @@
       </c>
       <c r="G38" s="37"/>
     </row>
-    <row r="39" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="51" t="str">
         <f t="shared" si="10"/>
         <v>MIN_BIOG-WWTP</v>
@@ -3488,7 +3486,7 @@
       </c>
       <c r="G39" s="21"/>
     </row>
-    <row r="40" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="55" t="str">
         <f t="shared" si="10"/>
         <v>MIN_BIOG_LFILL</v>
@@ -3507,7 +3505,7 @@
       </c>
       <c r="G40" s="37"/>
     </row>
-    <row r="41" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="56" t="str">
         <f>C95</f>
         <v>MIN_BIOM</v>
@@ -3526,7 +3524,7 @@
       </c>
       <c r="G41" s="45"/>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B42" t="str">
         <f>C96</f>
         <v>MIN_CANOLA</v>
@@ -3538,11 +3536,11 @@
       <c r="D42" t="s">
         <v>170</v>
       </c>
-      <c r="F42" s="68">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="43" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F42" s="66">
+        <v>90.34</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" t="str">
         <f>C97</f>
         <v>IMP_COCONUT</v>
@@ -3555,13 +3553,12 @@
         <v>169</v>
       </c>
       <c r="E43" s="21"/>
-      <c r="F43" s="68">
-        <v>729</v>
+      <c r="F43" s="66">
+        <v>45.1</v>
       </c>
       <c r="G43" s="21"/>
-      <c r="H43" s="67"/>
-    </row>
-    <row r="45" spans="2:24" ht="17.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="45" spans="2:24" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B45" s="9" t="s">
         <v>57</v>
       </c>
@@ -3583,7 +3580,7 @@
       <c r="W45" s="9"/>
       <c r="X45" s="9"/>
     </row>
-    <row r="47" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="18" t="s">
         <v>15</v>
       </c>
@@ -3605,7 +3602,7 @@
       <c r="R47" s="18"/>
       <c r="S47" s="18"/>
     </row>
-    <row r="48" spans="2:24" ht="39.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:24" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="5" t="s">
         <v>16</v>
       </c>
@@ -3655,7 +3652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="2:19" ht="76.900000000000006" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:19" ht="106.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="4" t="s">
         <v>58</v>
       </c>
@@ -3705,7 +3702,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="19" t="s">
         <v>24</v>
       </c>
@@ -3739,7 +3736,7 @@
       <c r="R50" s="28"/>
       <c r="S50" s="28"/>
     </row>
-    <row r="51" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="24" t="s">
         <v>24</v>
       </c>
@@ -3773,7 +3770,7 @@
       <c r="R51" s="30"/>
       <c r="S51" s="30"/>
     </row>
-    <row r="52" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="19" t="s">
         <v>24</v>
       </c>
@@ -3807,7 +3804,7 @@
       <c r="R52" s="28"/>
       <c r="S52" s="28"/>
     </row>
-    <row r="53" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="24" t="s">
         <v>24</v>
       </c>
@@ -3841,7 +3838,7 @@
       <c r="R53" s="30"/>
       <c r="S53" s="30"/>
     </row>
-    <row r="54" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="19" t="s">
         <v>24</v>
       </c>
@@ -3875,7 +3872,7 @@
       <c r="R54" s="28"/>
       <c r="S54" s="28"/>
     </row>
-    <row r="55" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="24" t="s">
         <v>24</v>
       </c>
@@ -3915,7 +3912,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="22" t="s">
         <v>24</v>
       </c>
@@ -3941,7 +3938,7 @@
       <c r="R56" s="16"/>
       <c r="S56" s="16"/>
     </row>
-    <row r="57" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="19" t="s">
         <v>24</v>
       </c>
@@ -3967,7 +3964,7 @@
       <c r="R57" s="16"/>
       <c r="S57" s="16"/>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B58" s="19" t="s">
         <v>24</v>
       </c>
@@ -3981,18 +3978,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="2:19" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B60" s="13" t="s">
         <v>65</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
     </row>
-    <row r="61" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
     </row>
-    <row r="63" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B63" s="18" t="s">
         <v>27</v>
       </c>
@@ -4004,7 +4001,7 @@
       <c r="H63" s="18"/>
       <c r="I63" s="18"/>
     </row>
-    <row r="64" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="5" t="s">
         <v>28</v>
       </c>
@@ -4030,7 +4027,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="38.65" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="4" t="s">
         <v>66</v>
       </c>
@@ -4056,7 +4053,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="21" t="s">
         <v>34</v>
       </c>
@@ -4078,7 +4075,7 @@
       <c r="H66" s="21"/>
       <c r="I66" s="21"/>
     </row>
-    <row r="67" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="37" t="s">
         <v>34</v>
       </c>
@@ -4100,7 +4097,7 @@
       <c r="H67" s="37"/>
       <c r="I67" s="37"/>
     </row>
-    <row r="68" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="21" t="s">
         <v>34</v>
       </c>
@@ -4122,7 +4119,7 @@
       <c r="H68" s="21"/>
       <c r="I68" s="21"/>
     </row>
-    <row r="69" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="37" t="s">
         <v>34</v>
       </c>
@@ -4144,7 +4141,7 @@
       <c r="H69" s="37"/>
       <c r="I69" s="37"/>
     </row>
-    <row r="70" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="21" t="s">
         <v>34</v>
       </c>
@@ -4166,7 +4163,7 @@
       <c r="H70" s="21"/>
       <c r="I70" s="21"/>
     </row>
-    <row r="71" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="37" t="s">
         <v>34</v>
       </c>
@@ -4188,7 +4185,7 @@
       <c r="H71" s="37"/>
       <c r="I71" s="37"/>
     </row>
-    <row r="72" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="21" t="s">
         <v>34</v>
       </c>
@@ -4210,7 +4207,7 @@
       <c r="H72" s="21"/>
       <c r="I72" s="21"/>
     </row>
-    <row r="73" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="37" t="s">
         <v>34</v>
       </c>
@@ -4232,7 +4229,7 @@
       <c r="H73" s="37"/>
       <c r="I73" s="37"/>
     </row>
-    <row r="74" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="21" t="s">
         <v>34</v>
       </c>
@@ -4254,7 +4251,7 @@
       <c r="H74" s="21"/>
       <c r="I74" s="21"/>
     </row>
-    <row r="75" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="37" t="s">
         <v>34</v>
       </c>
@@ -4276,7 +4273,7 @@
       <c r="H75" s="37"/>
       <c r="I75" s="37"/>
     </row>
-    <row r="76" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="21" t="s">
         <v>34</v>
       </c>
@@ -4298,7 +4295,7 @@
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
     </row>
-    <row r="77" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="37" t="s">
         <v>34</v>
       </c>
@@ -4320,7 +4317,7 @@
       <c r="H77" s="37"/>
       <c r="I77" s="37"/>
     </row>
-    <row r="78" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="21" t="s">
         <v>34</v>
       </c>
@@ -4342,7 +4339,7 @@
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
     </row>
-    <row r="79" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="37" t="s">
         <v>34</v>
       </c>
@@ -4364,7 +4361,7 @@
       <c r="H79" s="37"/>
       <c r="I79" s="37"/>
     </row>
-    <row r="80" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="21" t="s">
         <v>34</v>
       </c>
@@ -4386,7 +4383,7 @@
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
     </row>
-    <row r="81" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="37" t="s">
         <v>34</v>
       </c>
@@ -4408,7 +4405,7 @@
       <c r="H81" s="37"/>
       <c r="I81" s="37"/>
     </row>
-    <row r="82" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="21" t="s">
         <v>34</v>
       </c>
@@ -4430,7 +4427,7 @@
       <c r="H82" s="21"/>
       <c r="I82" s="21"/>
     </row>
-    <row r="83" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="37" t="s">
         <v>34</v>
       </c>
@@ -4452,7 +4449,7 @@
       <c r="H83" s="37"/>
       <c r="I83" s="37"/>
     </row>
-    <row r="84" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="21" t="s">
         <v>34</v>
       </c>
@@ -4474,7 +4471,7 @@
       <c r="H84" s="21"/>
       <c r="I84" s="21"/>
     </row>
-    <row r="85" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="37" t="s">
         <v>34</v>
       </c>
@@ -4496,7 +4493,7 @@
       <c r="H85" s="37"/>
       <c r="I85" s="37"/>
     </row>
-    <row r="86" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="37" t="s">
         <v>34</v>
       </c>
@@ -4518,7 +4515,7 @@
       <c r="H86" s="37"/>
       <c r="I86" s="37"/>
     </row>
-    <row r="87" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="37" t="s">
         <v>34</v>
       </c>
@@ -4540,7 +4537,7 @@
       <c r="H87" s="37"/>
       <c r="I87" s="37"/>
     </row>
-    <row r="88" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="46" t="s">
         <v>160</v>
       </c>
@@ -4552,7 +4549,7 @@
       <c r="H88" s="46"/>
       <c r="I88" s="46"/>
     </row>
-    <row r="89" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="21" t="s">
         <v>37</v>
       </c>
@@ -4572,7 +4569,7 @@
       <c r="H89" s="21"/>
       <c r="I89" s="21"/>
     </row>
-    <row r="90" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="37" t="s">
         <v>36</v>
       </c>
@@ -4592,7 +4589,7 @@
       <c r="H90" s="37"/>
       <c r="I90" s="37"/>
     </row>
-    <row r="91" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="21" t="s">
         <v>37</v>
       </c>
@@ -4612,7 +4609,7 @@
       <c r="H91" s="21"/>
       <c r="I91" s="21"/>
     </row>
-    <row r="92" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="37" t="s">
         <v>37</v>
       </c>
@@ -4632,7 +4629,7 @@
       <c r="H92" s="37"/>
       <c r="I92" s="37"/>
     </row>
-    <row r="93" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="21" t="s">
         <v>37</v>
       </c>
@@ -4652,7 +4649,7 @@
       <c r="H93" s="21"/>
       <c r="I93" s="21"/>
     </row>
-    <row r="94" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="37" t="s">
         <v>37</v>
       </c>
@@ -4672,7 +4669,7 @@
       <c r="H94" s="37"/>
       <c r="I94" s="37"/>
     </row>
-    <row r="95" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="45" t="s">
         <v>37</v>
       </c>
@@ -4692,7 +4689,7 @@
       <c r="H95" s="45"/>
       <c r="I95" s="45"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="37" t="s">
         <v>37</v>
       </c>
@@ -4709,7 +4706,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="21" t="s">
         <v>36</v>
       </c>
@@ -4726,17 +4723,17 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" s="21"/>
       <c r="E98" s="21"/>
       <c r="G98" s="21"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" s="21"/>
       <c r="E99" s="21"/>
       <c r="G99" s="21"/>
     </row>
-    <row r="100" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B100" s="57"/>
       <c r="C100" s="58" t="s">
         <v>81</v>
@@ -4745,7 +4742,7 @@
       <c r="E100" s="18"/>
       <c r="F100" s="18"/>
     </row>
-    <row r="101" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="2" t="s">
         <v>1</v>
       </c>
@@ -4764,7 +4761,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="102" spans="2:7" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="4" t="s">
         <v>38</v>
       </c>
@@ -4775,7 +4772,7 @@
       <c r="E102" s="41"/>
       <c r="F102" s="4"/>
     </row>
-    <row r="103" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="21" t="str">
         <f>C66</f>
         <v>ELE_NEW_BC_PL</v>
@@ -4789,7 +4786,7 @@
       <c r="E103" s="21"/>
       <c r="F103" s="35"/>
     </row>
-    <row r="104" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="37" t="str">
         <f t="shared" ref="B104:B111" si="13">C67</f>
         <v>ELE_NEW_BC_PL_CCS</v>
@@ -4803,7 +4800,7 @@
       <c r="E104" s="37"/>
       <c r="F104" s="39"/>
     </row>
-    <row r="105" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="21" t="str">
         <f t="shared" si="13"/>
         <v>ELE_NEW_BC_FBC</v>
@@ -4817,7 +4814,7 @@
       <c r="E105" s="21"/>
       <c r="F105" s="21"/>
     </row>
-    <row r="106" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="37" t="str">
         <f t="shared" si="13"/>
         <v>ELE_NEW_HC_PC</v>
@@ -4831,7 +4828,7 @@
       </c>
       <c r="F106" s="37"/>
     </row>
-    <row r="107" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="21" t="str">
         <f t="shared" si="13"/>
         <v>ELE_NEW_HC_IGCC</v>
@@ -4845,7 +4842,7 @@
       </c>
       <c r="F107" s="21"/>
     </row>
-    <row r="108" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="37" t="str">
         <f t="shared" si="13"/>
         <v>ELE_NEW_HC_IGCC_CCS</v>
@@ -4859,7 +4856,7 @@
       </c>
       <c r="F108" s="37"/>
     </row>
-    <row r="109" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="21" t="str">
         <f t="shared" si="13"/>
         <v>ELE_NEW_NAT-GAS_CCGT</v>
@@ -4873,7 +4870,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="110" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="37" t="str">
         <f t="shared" si="13"/>
         <v>ELE_NEW_NAT-GAS_CCGT_CCS</v>
@@ -4887,7 +4884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B111" s="45" t="str">
         <f t="shared" si="13"/>
         <v>ELE_NEW_NAT-GAS_OCGT</v>
@@ -4911,6 +4908,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -5105,7 +5113,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5114,18 +5122,20 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E5F63E1-FA12-470A-B6BF-F8D91BBDCA85}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5144,23 +5154,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFEB70E-69FF-4344-86F3-68CBE7A02A30}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381C5566-4C2B-4AE5-87F0-C62C9215F695}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>